--- a/wti模型3.0/eta/WTI连1-连4月差拟合残差-PADD3炼厂压裂裂解_月度数据.xlsx
+++ b/wti模型3.0/eta/WTI连1-连4月差拟合残差-PADD3炼厂压裂裂解_月度数据.xlsx
@@ -627,7 +627,7 @@
         <v>0.4</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16">
